--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vishal_2\e-learning-phase-1\e-learning-phase-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A99F63-2D4E-44BF-B6C6-20B0D3046710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +27,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Design &amp; Media</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Environment &amp; Sound</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Finance &amp; Budgeting</t>
+  </si>
+  <si>
+    <t>Food &amp; Cooking</t>
+  </si>
+  <si>
+    <t>Geography &amp; Time</t>
+  </si>
+  <si>
+    <t>Health &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Health &amp; Wellness</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Media &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>System &amp; Utility</t>
+  </si>
+  <si>
+    <t>Text &amp; Language</t>
+  </si>
+  <si>
+    <t>Time &amp; Date</t>
+  </si>
+  <si>
+    <t>Travel &amp; Transportation</t>
+  </si>
+  <si>
+    <t>Weather &amp; Climate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +156,797 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pragya ." refreshedDate="45711.875546527779" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="102" xr:uid="{C09D22DB-BA6A-4F71-A8F3-44E5414E91EC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B102" sheet="Sheet1" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="23">
+        <s v="Weather &amp; Climate"/>
+        <s v="Travel &amp; Transportation"/>
+        <s v="Time &amp; Date"/>
+        <s v="Text &amp; Language"/>
+        <s v="System &amp; Utility"/>
+        <s v="Statistics"/>
+        <s v="Security"/>
+        <s v="Productivity"/>
+        <s v="Miscellaneous"/>
+        <s v="Media &amp; Entertainment"/>
+        <s v="Mathematics"/>
+        <s v="Health &amp; Wellness"/>
+        <s v="Health &amp; Fitness"/>
+        <s v="Geography &amp; Time"/>
+        <s v="Food &amp; Cooking"/>
+        <s v="Finance &amp; Budgeting"/>
+        <s v="Finance"/>
+        <s v="Environment &amp; Sound"/>
+        <s v="Environment"/>
+        <s v="Engineering"/>
+        <s v="E-commerce"/>
+        <s v="Design &amp; Media"/>
+        <s v="Conversions"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Utility Name" numFmtId="0">
+      <sharedItems containsBlank="1" count="102">
+        <m/>
+        <s v="Heat Index Calculator"/>
+        <s v="Dew Point Calculator"/>
+        <s v="Mileage Calculator"/>
+        <s v="Fuel Cost Estimator"/>
+        <s v="GPS Distance Finder"/>
+        <s v="Time Difference Calculator"/>
+        <s v="Age Calculator"/>
+        <s v="Date Difference Calculator"/>
+        <s v="Countdown Timer"/>
+        <s v="Text Case Converter"/>
+        <s v="Word &amp; Character Counter"/>
+        <s v="Text Summarizer"/>
+        <s v="Palindrome Checker"/>
+        <s v="Anagram Finder"/>
+        <s v="Morse Code Converter"/>
+        <s v="Language Translator"/>
+        <s v="Plagiarism Checker"/>
+        <s v="Grammar Checker"/>
+        <s v="Reading Time Estimator"/>
+        <s v="System Resource Monitor"/>
+        <s v="File Size Converter"/>
+        <s v="Clipboard Manager"/>
+        <s v="Internet Speed Test"/>
+        <s v="Process &amp; Task Manager"/>
+        <s v="Linear Regression Calculator"/>
+        <s v="Mean, Median, Mode Calculator"/>
+        <s v="Standard Deviation Calculator"/>
+        <s v="Variance Calculator"/>
+        <s v="Correlation &amp; Covariance Calculator"/>
+        <s v="Probability Calculator"/>
+        <s v="Outlier Detection"/>
+        <s v="Histogram Generator"/>
+        <s v="MD5 / SHA Hash Generator"/>
+        <s v="Base64 Encoder &amp; Decoder"/>
+        <s v="File Integrity Checker"/>
+        <s v="Password Generator"/>
+        <s v="Work Hours Tracker"/>
+        <s v="Pomodoro Timer"/>
+        <s v="Task Prioritizer"/>
+        <s v="Mind Map Generator"/>
+        <s v="Kanban Board"/>
+        <s v="Typing Speed Test"/>
+        <s v="Random Number Generator"/>
+        <s v="MP3 Duration Calculator"/>
+        <s v="Video Bitrate Calculator"/>
+        <s v="Adder"/>
+        <s v="Subtractor"/>
+        <s v="Multiplier"/>
+        <s v="Divider"/>
+        <s v="Average Calculator"/>
+        <s v="Cumulative Sum Calculator"/>
+        <s v="Factorial Calculator"/>
+        <s v="Percentage Calculator"/>
+        <s v="Square &amp; Cube Root Calculator"/>
+        <s v="Prime Number Checker"/>
+        <s v="GCD &amp; LCM Calculator"/>
+        <s v="Quadratic Equation Solver"/>
+        <s v="Logarithm Calculator"/>
+        <s v="Fibonacci Series Generator"/>
+        <s v="Permutation &amp; Combination Calculator"/>
+        <s v="Matrix Operations"/>
+        <s v="Binary, Octal, Hex Converter"/>
+        <s v="Roman to Decimal Converter"/>
+        <s v="Prime Factorization"/>
+        <s v="Habit Tracker"/>
+        <s v="Meditation Timer"/>
+        <s v="Sleep Cycle Calculator"/>
+        <s v="BMI Calculator"/>
+        <s v="Calorie Calculator"/>
+        <s v="Heart Rate Zone Calculator"/>
+        <s v="Weight Loss Tracker"/>
+        <s v="Sunrise &amp; Sunset Calculator"/>
+        <s v="GPS Coordinate Converter"/>
+        <s v="Daylight Savings Time Checker"/>
+        <s v="World Time Zone Converter"/>
+        <s v="Cooking Measurement Converter"/>
+        <s v="Recipe Ingredient Scaler"/>
+        <s v="Expense Splitter"/>
+        <s v="Bill Splitter"/>
+        <s v="Stock Market Profit Calculator"/>
+        <s v="Loan EMI Calculator"/>
+        <s v="Simple &amp; Compound Interest Calculator"/>
+        <s v="Inflation Rate Calculator"/>
+        <s v="Retirement Savings Calculator"/>
+        <s v="Discount &amp; Tax Calculator"/>
+        <s v="Salary Tax Calculator"/>
+        <s v="Income &amp; Expense Tracker"/>
+        <s v="Noise Level Detector"/>
+        <s v="CO2 Emission Calculator"/>
+        <s v="Carbon Footprint Tracker"/>
+        <s v="Pythagorean Theorem Calculator"/>
+        <s v="Speed, Distance &amp; Time Calculator"/>
+        <s v="Electrical Resistance Calculator"/>
+        <s v="Voltage, Current, Resistance Calculator"/>
+        <s v="Shipping Cost Calculator"/>
+        <s v="RGB to HEX Converter"/>
+        <s v="Image Aspect Ratio Calculator"/>
+        <s v="Frame Rate Converter"/>
+        <s v="Sound Frequency Calculator"/>
+        <s v="Unit Converter"/>
+        <s v="Currency Converter"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="102">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="101"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{235E07DC-F3EB-4E84-96B8-2C1D5F8F9568}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Utilities">
+  <location ref="A1:A24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="24">
+        <item sd="0" x="22"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="103">
+        <item x="46"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="50"/>
+        <item x="34"/>
+        <item x="79"/>
+        <item x="62"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="90"/>
+        <item x="22"/>
+        <item x="89"/>
+        <item x="76"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="51"/>
+        <item x="101"/>
+        <item x="8"/>
+        <item x="74"/>
+        <item x="2"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="93"/>
+        <item x="78"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="98"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="73"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="65"/>
+        <item x="70"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="97"/>
+        <item x="87"/>
+        <item x="83"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="81"/>
+        <item x="58"/>
+        <item x="61"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="66"/>
+        <item x="3"/>
+        <item x="40"/>
+        <item x="15"/>
+        <item x="44"/>
+        <item x="48"/>
+        <item x="88"/>
+        <item x="31"/>
+        <item x="13"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="60"/>
+        <item x="17"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="55"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="91"/>
+        <item x="57"/>
+        <item x="43"/>
+        <item x="19"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="96"/>
+        <item x="63"/>
+        <item x="86"/>
+        <item x="95"/>
+        <item x="82"/>
+        <item x="67"/>
+        <item x="99"/>
+        <item x="92"/>
+        <item x="54"/>
+        <item x="27"/>
+        <item x="80"/>
+        <item x="47"/>
+        <item x="72"/>
+        <item x="20"/>
+        <item x="39"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="42"/>
+        <item sd="0" x="100"/>
+        <item x="28"/>
+        <item x="45"/>
+        <item x="94"/>
+        <item x="71"/>
+        <item x="11"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1211,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>